--- a/Юбилей.xlsx
+++ b/Юбилей.xlsx
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -268,39 +268,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -308,7 +311,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -691,17 +694,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -725,242 +728,250 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="45">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="30">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>100</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>65</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="30">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>80</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>80</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>0.5</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="60">
-      <c r="A8" s="11">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>100</v>
+      </c>
+      <c r="D8" s="15">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>90</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>95</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="90">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>85</v>
+      </c>
+      <c r="D11" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="E11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17">
         <v>100</v>
       </c>
-      <c r="D8" s="13">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11">
-        <v>90</v>
-      </c>
-      <c r="D9" s="13">
-        <v>5</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11">
-        <v>95</v>
-      </c>
-      <c r="D10" s="13">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="D12" s="19">
         <v>20</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="90">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11">
-        <v>85</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="45" customHeight="1">
-      <c r="A12" s="15">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="15">
-        <v>100</v>
-      </c>
-      <c r="D12" s="17">
-        <v>20</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2"/>
@@ -974,7 +985,7 @@
     </row>
     <row r="14" spans="1:10" ht="105">
       <c r="A14" s="2"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2"/>
@@ -993,6 +1004,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>